--- a/materials.xlsx
+++ b/materials.xlsx
@@ -5,28 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MatBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B897E-8EB3-4D8E-9E8E-1D2A3A1BE017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F55F130-F5D9-4F5E-BB3A-20FE8108F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="金属" sheetId="1" r:id="rId1"/>
-    <sheet name="非金属" sheetId="2" r:id="rId2"/>
+    <sheet name="铝合金" sheetId="1" r:id="rId1"/>
+    <sheet name="合金钢" sheetId="4" r:id="rId2"/>
+    <sheet name="铜" sheetId="5" r:id="rId3"/>
+    <sheet name="钛合金" sheetId="6" r:id="rId4"/>
+    <sheet name="塑料" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>材料名称</t>
   </si>
@@ -43,40 +55,87 @@
     <t>2A12-T4</t>
   </si>
   <si>
-    <t>7075-T6</t>
-  </si>
-  <si>
-    <t>304不锈钢</t>
-  </si>
-  <si>
-    <t>Q235碳钢</t>
-  </si>
-  <si>
-    <t>ABS塑料</t>
-  </si>
-  <si>
-    <t>PC塑料</t>
-  </si>
-  <si>
-    <t>氧化铝陶瓷</t>
-  </si>
-  <si>
-    <t>碳化硅陶瓷</t>
-  </si>
-  <si>
-    <t>密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹性模量(Mpa)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抗拉强度(Mpa)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>屈服强度(Mpa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊松比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度(Kg/m3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格(元/吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉伸强度(Mpa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6061-T6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7050-T7451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7075-T651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30CrMnSiA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0Cr18Ni9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65Mn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性模量(Gpa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,10 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,104 +467,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="7" max="7" width="18.08203125" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" customWidth="1"/>
+    <col min="9" max="9" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>2.78</v>
+        <v>2780</v>
       </c>
       <c r="C2" s="1">
         <v>70</v>
       </c>
       <c r="D2" s="1">
-        <v>470</v>
+        <v>0.33</v>
       </c>
       <c r="E2" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="F2" s="1">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>2.81</v>
+        <v>2712</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>570</v>
+        <v>0.33</v>
       </c>
       <c r="E3" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="F3" s="1">
+        <v>255</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2820</v>
+      </c>
+      <c r="C4" s="1">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="1">
+        <v>510</v>
+      </c>
+      <c r="F4" s="1">
+        <v>420</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2810</v>
+      </c>
+      <c r="C5" s="1">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="E5" s="1">
+        <v>530</v>
+      </c>
+      <c r="F5" s="1">
+        <v>440</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C769266-103E-407B-BDEE-D007CF6935C8}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7750</v>
+      </c>
+      <c r="C2" s="1">
+        <v>210</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1080</v>
+      </c>
+      <c r="F2" s="1">
+        <v>835</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7850</v>
+      </c>
+      <c r="C3" s="1">
+        <v>210</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>735</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" s="1">
-        <v>7.93</v>
+        <v>7850</v>
       </c>
       <c r="C4" s="1">
         <v>210</v>
       </c>
       <c r="D4" s="1">
-        <v>505</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="1">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>375</v>
+      </c>
+      <c r="F4" s="1">
+        <v>235</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45</v>
       </c>
       <c r="B5" s="1">
-        <v>7.85</v>
+        <v>7810</v>
       </c>
       <c r="C5" s="1">
         <v>210</v>
       </c>
       <c r="D5" s="1">
-        <v>375</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="1">
-        <v>235</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="F5" s="1">
+        <v>355</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7810</v>
+      </c>
+      <c r="C6" s="1">
+        <v>210</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>980</v>
+      </c>
+      <c r="F6" s="1">
+        <v>785</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -510,15 +844,176 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634E979-EDC8-4A6D-8147-DB8573E52ECF}">
-  <dimension ref="A1:D5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB21FBF-3262-45DB-AFB6-65B2BC160B6A}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8430</v>
+      </c>
+      <c r="C2" s="2">
+        <v>105</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>370</v>
+      </c>
+      <c r="F2" s="2">
+        <v>160</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9B449A-300F-4565-96A8-ECB8FF3002D4}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4440</v>
+      </c>
+      <c r="C2" s="2">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>880</v>
+      </c>
+      <c r="F2" s="2">
+        <v>815</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634E979-EDC8-4A6D-8147-DB8573E52ECF}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -536,7 +1031,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1.04</v>
@@ -550,7 +1045,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1.2</v>
@@ -560,34 +1055,6 @@
       </c>
       <c r="D3">
         <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>3.95</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>3.21</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="D5">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
